--- a/仕様調査/キャラクタパターン/新規 Microsoft Excel ワークシート.xlsx
+++ b/仕様調査/キャラクタパターン/新規 Microsoft Excel ワークシート.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30090" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -308,106 +309,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>((</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">BYTE目  * </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) + (((</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">BYTE目+8byte) * </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0x40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)*2))</t>
-    </r>
-    <rPh sb="7" eb="8">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一番右下</t>
     <rPh sb="0" eb="2">
       <t>イチバン</t>
@@ -479,6 +380,106 @@
         <scheme val="minor"/>
       </rPr>
       <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BYTE目+8byte) * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)*2))</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BYTE目  * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) + (((</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1169,9 +1170,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:CE52"/>
+  <dimension ref="A2:CE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
   <cols>
@@ -3666,17 +3669,17 @@
     </row>
     <row r="49" spans="3:4">
       <c r="D49" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="3:4">
       <c r="C51" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="3:4">
       <c r="D52" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
